--- a/google-data/Actuaciones post-incendio (respuestas).xlsx
+++ b/google-data/Actuaciones post-incendio (respuestas).xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Documents\GitHub\choice-survey\google-data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFFBE19-C5A0-476B-91EE-EE2C6543F16A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Respuestas de formulario 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Respuestas de formulario 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="53">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -145,9 +154,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Vulnerabilidad Social</t>
-  </si>
-  <si>
     <t>Vulnerabilidad social</t>
   </si>
   <si>
@@ -167,69 +173,82 @@
   </si>
   <si>
     <t>10 - 20 años</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Twitter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -419,30 +438,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="3" width="21.57"/>
-    <col customWidth="1" min="4" max="4" width="24.71"/>
-    <col customWidth="1" min="5" max="17" width="21.57"/>
-    <col customWidth="1" min="18" max="18" width="51.29"/>
-    <col customWidth="1" min="19" max="34" width="21.57"/>
+    <col min="1" max="3" width="21.53515625" customWidth="1"/>
+    <col min="4" max="4" width="24.69140625" customWidth="1"/>
+    <col min="5" max="17" width="21.53515625" customWidth="1"/>
+    <col min="18" max="18" width="51.3046875" customWidth="1"/>
+    <col min="19" max="34" width="21.53515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,45 +550,45 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>44025.72242789352</v>
+        <v>44025.722427893517</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E2" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G2" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I2" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K2" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M2" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N2" s="3" t="s">
         <v>31</v>
@@ -605,39 +627,39 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>44027.51543038194</v>
+        <v>44027.515430381944</v>
       </c>
       <c r="C3" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E3" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I3" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="M3" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>37</v>
@@ -673,45 +695,45 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>44027.8665253588</v>
+        <v>44027.866525358797</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I4" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K4" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M4" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="N4" s="3" t="s">
         <v>39</v>
@@ -750,45 +772,45 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>44032.57019866898</v>
+        <v>44032.570198668982</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E5" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I5" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K5" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M5" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="O5" s="3" t="s">
         <v>38</v>
@@ -827,45 +849,45 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>44032.58144768518</v>
+        <v>44032.581447685181</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E6" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K6" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M6" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>38</v>
@@ -874,7 +896,7 @@
         <v>40</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="R6" s="3" t="s">
         <v>36</v>
@@ -904,45 +926,45 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>44032.61711194445</v>
+        <v>44032.617111944448</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E7" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I7" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K7" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M7" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="N7" s="3" t="s">
         <v>31</v>
@@ -972,63 +994,63 @@
         <v>36</v>
       </c>
       <c r="W7" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="X7" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB7" s="3" t="s">
-        <v>48</v>
-      </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>44055.478425451394</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C8" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="3">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I8" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K8" s="3">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="L8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M8" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="O8" s="3" t="s">
         <v>32</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>42</v>
@@ -1061,7 +1083,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>44055.758927002316</v>
       </c>
@@ -1069,37 +1091,37 @@
         <v>28</v>
       </c>
       <c r="C9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="M9" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>31</v>
@@ -1108,7 +1130,7 @@
         <v>32</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>36</v>
@@ -1135,10 +1157,10 @@
         <v>34</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>44056.416187002316</v>
       </c>
@@ -1146,37 +1168,37 @@
         <v>29</v>
       </c>
       <c r="C10" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E10" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M10" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>37</v>
@@ -1185,7 +1207,7 @@
         <v>38</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>34</v>
@@ -1212,54 +1234,54 @@
         <v>36</v>
       </c>
       <c r="AB10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
-        <v>44061.39486758102</v>
+        <v>44061.394867581017</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E11" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G11" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I11" s="3">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K11" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="L11" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M11" s="3">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="O11" s="3" t="s">
         <v>38</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R11" s="3" t="s">
         <v>34</v>
@@ -1289,7 +1311,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>44061.510318773144</v>
       </c>
@@ -1297,76 +1319,313 @@
         <v>29</v>
       </c>
       <c r="C12" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>44</v>
       </c>
       <c r="E12" s="3">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G12" s="3">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I12" s="3">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K12" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M12" s="3">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O12" s="3" t="s">
         <v>38</v>
       </c>
       <c r="P12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB12" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>44064.557989560184</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3">
+        <v>5</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="3">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="3">
+        <v>7</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I13" s="3">
+        <v>8</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="3">
+        <v>7</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="3">
+        <v>6</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="U13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB13" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>44066.860223611111</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="3">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="3">
+        <v>7</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I14" s="3">
+        <v>7</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="3">
+        <v>6</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="3">
+        <v>7</v>
+      </c>
+      <c r="N14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>48</v>
+      <c r="O14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>44067.55504042824</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="3">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="3">
+        <v>5</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="3">
+        <v>8</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" s="3">
+        <v>5</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="3">
+        <v>8</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="3">
+        <v>8</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="V15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="X15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB15" s="3" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/google-data/Actuaciones post-incendio (respuestas).xlsx
+++ b/google-data/Actuaciones post-incendio (respuestas).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pablo\Documents\GitHub\choice-survey\google-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFFBE19-C5A0-476B-91EE-EE2C6543F16A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F75D852F-44A6-477D-8BB8-3099D566F7D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="49">
   <si>
     <t>Marca temporal</t>
   </si>
@@ -121,9 +121,6 @@
     <t>Masculino</t>
   </si>
   <si>
-    <t>Maestría, especialización o equivalente (Master Degree)</t>
-  </si>
-  <si>
     <t>Alternativa B</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
     <t>Galicia</t>
   </si>
   <si>
-    <t>Twitter, Tick Tock, Facebook, Instagram</t>
-  </si>
-  <si>
     <t>Facebook</t>
   </si>
   <si>
@@ -155,12 +149,6 @@
   </si>
   <si>
     <t>Vulnerabilidad social</t>
-  </si>
-  <si>
-    <t>Facebook, Instagram</t>
-  </si>
-  <si>
-    <t>Ninguna de las anteriores</t>
   </si>
   <si>
     <t>Si</t>
@@ -188,7 +176,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -202,6 +190,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -224,12 +218,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,11 +443,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AB15"/>
+  <dimension ref="A1:AB18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.4609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -552,10 +547,10 @@
     </row>
     <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
-        <v>44025.722427893517</v>
+        <v>44055.478425451394</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -570,19 +565,19 @@
         <v>30</v>
       </c>
       <c r="G2" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I2" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K2" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>30</v>
@@ -590,94 +585,100 @@
       <c r="M2" s="3">
         <v>6</v>
       </c>
-      <c r="N2" s="3" t="s">
-        <v>31</v>
-      </c>
       <c r="O2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>33</v>
+        <v>45</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S2" s="3" t="s">
         <v>35</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y2" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="Z2" s="3" t="s">
-        <v>34</v>
+      <c r="AB2" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4">
-        <v>44027.515430381944</v>
+        <v>44055.758927002316</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C3" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E3" s="3">
         <v>7</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G3" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I3" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J3" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K3" s="3">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="M3" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="U3" s="3" t="s">
         <v>34</v>
@@ -688,120 +689,123 @@
       <c r="W3" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="X3" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="Y3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4">
-        <v>44027.866525358797</v>
+        <v>44056.416187002316</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>29</v>
       </c>
       <c r="E4" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G4" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I4" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="J4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K4" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M4" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="V4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="AB4" s="3" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
-        <v>44032.570198668982</v>
+        <v>44061.394867581017</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C5" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E5" s="3">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3">
         <v>9</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="3">
-        <v>7</v>
-      </c>
       <c r="H5" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I5" s="3">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K5" s="3">
         <v>5</v>
@@ -810,114 +814,111 @@
         <v>30</v>
       </c>
       <c r="M5" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="U5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>34</v>
       </c>
       <c r="W5" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X5" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB5" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
-        <v>44032.581447685181</v>
+        <v>44061.510318773144</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="3">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="3">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="H6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="3">
         <v>6</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="3">
-        <v>7</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="3">
-        <v>7</v>
-      </c>
       <c r="J6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K6" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M6" s="3">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="3" t="s">
         <v>45</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S6" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y6" s="3" t="s">
         <v>35</v>
@@ -928,156 +929,156 @@
     </row>
     <row r="7" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
-        <v>44032.617111944448</v>
+        <v>44064.557989560184</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C7" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E7" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G7" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I7" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K7" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M7" s="3">
         <v>6</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="P7" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="Q7" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="R7" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="U7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="X7" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="AB7" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
-        <v>44055.478425451394</v>
+        <v>44066.860223611111</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C8" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="E8" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G8" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I8" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="K8" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M8" s="3">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="U8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>35</v>
       </c>
       <c r="X8" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="AB8" s="3" t="s">
         <v>43</v>
@@ -1085,547 +1086,89 @@
     </row>
     <row r="9" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
-        <v>44055.758927002316</v>
+        <v>44067.55504042824</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E9" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>30</v>
       </c>
       <c r="G9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>28</v>
       </c>
       <c r="I9" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="M9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>32</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>48</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U9" s="3" t="s">
         <v>35</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="X9" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AB9" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
-        <v>44056.416187002316</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" s="3">
-        <v>6</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="3">
-        <v>6</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="3">
-        <v>7</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="3">
-        <v>7</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="3">
-        <v>7</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="3">
-        <v>7</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB10" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>44061.394867581017</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="3">
-        <v>7</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="3">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G11" s="3">
-        <v>9</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="3">
-        <v>5</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="3">
-        <v>5</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W11" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB11" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
-        <v>44061.510318773144</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="3">
-        <v>7</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="3">
-        <v>7</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="3">
-        <v>9</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="3">
-        <v>6</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="3">
-        <v>8</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="3">
-        <v>8</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="W12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB12" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
-        <v>44064.557989560184</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="3">
-        <v>5</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="3">
-        <v>7</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="3">
-        <v>7</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I13" s="3">
-        <v>8</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="3">
-        <v>7</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="3">
-        <v>6</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W13" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X13" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB13" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>44066.860223611111</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="3">
-        <v>6</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="3">
-        <v>7</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="3">
-        <v>7</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I14" s="3">
-        <v>7</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="3">
-        <v>6</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M14" s="3">
-        <v>7</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>44067.55504042824</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="3">
-        <v>6</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="3">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="3">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="3">
-        <v>5</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="3">
-        <v>8</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="3">
-        <v>8</v>
-      </c>
-      <c r="N15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O15" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="W15" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="X15" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>47</v>
-      </c>
+    <row r="18" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>